--- a/Danh sach cau hoi.xlsx
+++ b/Danh sach cau hoi.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D695F2-9653-4F18-BC36-B12FA1E1BF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1008" yWindow="2304" windowWidth="22032" windowHeight="10632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="2310" windowWidth="22035" windowHeight="10635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="10" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,10 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
-    <t>No.</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>Module / Screen</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -172,12 +167,15 @@
   </si>
   <si>
     <t>Món ăn</t>
+  </si>
+  <si>
+    <t>No.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
@@ -249,7 +247,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -283,20 +281,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -308,9 +297,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -330,11 +316,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -342,26 +331,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,9 +484,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -541,9 +524,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -578,7 +561,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -613,7 +596,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -786,1042 +769,988 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70:B78"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection sqref="A1:H78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="92.45" customHeight="1">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="92.4" customHeight="1">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="16.899999999999999" customHeight="1">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.8" customHeight="1">
-      <c r="A3" s="23">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="19" t="s">
+      <c r="D3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="13.8" customHeight="1">
-      <c r="A4" s="23"/>
+      <c r="G3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A4" s="13"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="19"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="16"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-    </row>
-    <row r="5" spans="1:8" ht="13.8" customHeight="1">
-      <c r="A5" s="23"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A5" s="13"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="19"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-    </row>
-    <row r="6" spans="1:8" ht="13.8" customHeight="1">
-      <c r="A6" s="23"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A6" s="13"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="19"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-    </row>
-    <row r="7" spans="1:8" ht="13.8" customHeight="1">
-      <c r="A7" s="23"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A7" s="13"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="19"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-    </row>
-    <row r="8" spans="1:8" ht="13.8" customHeight="1">
-      <c r="A8" s="23"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A8" s="13"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="19"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-    </row>
-    <row r="9" spans="1:8" ht="13.8" customHeight="1">
-      <c r="A9" s="14">
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A9" s="13">
         <v>3</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="E9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>40</v>
+      <c r="G9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="19"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="16"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="19"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="19"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="16"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="19"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="16"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="14">
+      <c r="A17" s="13">
         <v>4</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="22" t="str">
+      <c r="C17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="17" t="str">
         <f>G2</f>
         <v>25/08/2024</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>39</v>
+        <v>22</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="19"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="16"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="19"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="16"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="19"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="19"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="16"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="19"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" ht="13.15" customHeight="1">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-    </row>
-    <row r="23" spans="1:8" ht="11.4" customHeight="1">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="19"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" ht="11.45" customHeight="1">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="16"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-    </row>
-    <row r="24" spans="1:8" ht="13.8" hidden="1" customHeight="1">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="19"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" ht="13.9" hidden="1" customHeight="1">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="16"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="19"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="16"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-    </row>
-    <row r="26" spans="1:8" ht="85.2" customHeight="1">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="19"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" ht="85.15" customHeight="1">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:8" ht="54" customHeight="1">
-      <c r="A27" s="14">
+      <c r="A27" s="13">
         <v>5</v>
       </c>
-      <c r="B27" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="19" t="s">
+      <c r="B27" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="15" t="s">
-        <v>25</v>
-      </c>
       <c r="E27" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="16.8" customHeight="1">
-      <c r="A28" s="14"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="19"/>
+        <v>37</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16.899999999999999" customHeight="1">
+      <c r="A28" s="13"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="16"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-    </row>
-    <row r="29" spans="1:8" ht="13.8" customHeight="1">
-      <c r="A29" s="14"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="19"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A29" s="13"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="16"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-    </row>
-    <row r="30" spans="1:8" ht="13.8" customHeight="1">
-      <c r="A30" s="14"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="19"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A30" s="13"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="16"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-    </row>
-    <row r="31" spans="1:8" ht="13.8" customHeight="1">
-      <c r="A31" s="14"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="19"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A31" s="13"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="16"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-    </row>
-    <row r="32" spans="1:8" ht="13.8" customHeight="1">
-      <c r="A32" s="14"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="19"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A32" s="13"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
       <c r="F32" s="16"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-    </row>
-    <row r="33" spans="1:8" ht="13.8" customHeight="1">
-      <c r="A33" s="14"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="19"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A33" s="13"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
       <c r="F33" s="16"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-    </row>
-    <row r="34" spans="1:8" ht="13.8" customHeight="1">
-      <c r="A34" s="14"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="19"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A34" s="13"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="16"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-    </row>
-    <row r="35" spans="1:8" ht="13.8" customHeight="1">
-      <c r="A35" s="14"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="19"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A35" s="13"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
       <c r="F35" s="16"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="14">
+      <c r="A36" s="13">
         <v>6</v>
       </c>
-      <c r="B36" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="19" t="s">
+      <c r="B36" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="19"/>
+      <c r="F36" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="16" t="s">
+      <c r="G36" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+    </row>
+    <row r="45" spans="1:8" ht="16.899999999999999" customHeight="1">
+      <c r="A45" s="13">
+        <v>7</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G36" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-    </row>
-    <row r="45" spans="1:8" ht="16.8" customHeight="1">
-      <c r="A45" s="14">
-        <v>7</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="D45" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" s="14" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="14"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="14"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="14"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="14"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="14"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="14"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="16"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="14"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-    </row>
-    <row r="53" spans="1:8" ht="67.8" customHeight="1">
-      <c r="A53" s="14">
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+    </row>
+    <row r="53" spans="1:8" ht="67.900000000000006" customHeight="1">
+      <c r="A53" s="13">
         <v>8</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="15" t="s">
-        <v>32</v>
-      </c>
       <c r="E53" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G53" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" s="14" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="14"/>
+      <c r="A54" s="13"/>
       <c r="B54" s="16"/>
-      <c r="C54" s="17"/>
+      <c r="C54" s="20"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="16"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="14"/>
+      <c r="A55" s="13"/>
       <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="C55" s="20"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="16"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="14"/>
+      <c r="A56" s="13"/>
       <c r="B56" s="16"/>
-      <c r="C56" s="17"/>
+      <c r="C56" s="20"/>
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="16"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="14"/>
+      <c r="A57" s="13"/>
       <c r="B57" s="16"/>
-      <c r="C57" s="17"/>
+      <c r="C57" s="20"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15"/>
       <c r="F57" s="16"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="14"/>
+      <c r="A58" s="13"/>
       <c r="B58" s="16"/>
-      <c r="C58" s="17"/>
+      <c r="C58" s="20"/>
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="16"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="14"/>
+      <c r="A59" s="13"/>
       <c r="B59" s="16"/>
-      <c r="C59" s="17"/>
+      <c r="C59" s="20"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
       <c r="F59" s="16"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="14"/>
+      <c r="A60" s="13"/>
       <c r="B60" s="16"/>
-      <c r="C60" s="17"/>
+      <c r="C60" s="20"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
       <c r="F60" s="16"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="14"/>
+      <c r="A61" s="13"/>
       <c r="B61" s="16"/>
-      <c r="C61" s="17"/>
+      <c r="C61" s="20"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="16"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-    </row>
-    <row r="62" spans="1:8" ht="13.8" customHeight="1">
-      <c r="A62" s="14">
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+    </row>
+    <row r="62" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A62" s="13">
         <v>9</v>
       </c>
-      <c r="B62" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>33</v>
+      <c r="B62" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="D62" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="15" t="s">
-        <v>11</v>
-      </c>
       <c r="F62" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G62" s="14" t="s">
-        <v>13</v>
+        <v>36</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="17"/>
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="20"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="16"/>
-      <c r="G63" s="14"/>
+      <c r="G63" s="13"/>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="17"/>
+    <row r="64" spans="1:8" ht="17.45" customHeight="1">
+      <c r="A64" s="13"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="20"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="14"/>
+      <c r="G64" s="13"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="65" spans="1:8" ht="16.8" customHeight="1">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="17"/>
+    <row r="65" spans="1:8" ht="16.899999999999999" customHeight="1">
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="20"/>
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="16"/>
-      <c r="G65" s="14"/>
+      <c r="G65" s="13"/>
       <c r="H65" s="13"/>
     </row>
-    <row r="66" spans="1:8" ht="13.8" customHeight="1">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="17"/>
+    <row r="66" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="20"/>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="16"/>
-      <c r="G66" s="14"/>
+      <c r="G66" s="13"/>
       <c r="H66" s="13"/>
     </row>
-    <row r="67" spans="1:8" ht="13.8" customHeight="1">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="17"/>
+    <row r="67" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="20"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
       <c r="F67" s="16"/>
-      <c r="G67" s="14"/>
+      <c r="G67" s="13"/>
       <c r="H67" s="13"/>
     </row>
-    <row r="68" spans="1:8" ht="13.8" customHeight="1">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="17"/>
+    <row r="68" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A68" s="13"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="20"/>
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="16"/>
-      <c r="G68" s="14"/>
+      <c r="G68" s="13"/>
       <c r="H68" s="13"/>
     </row>
-    <row r="69" spans="1:8" ht="13.8" customHeight="1">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="17"/>
+    <row r="69" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="20"/>
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="16"/>
-      <c r="G69" s="14"/>
+      <c r="G69" s="13"/>
       <c r="H69" s="13"/>
     </row>
-    <row r="70" spans="1:8" ht="16.8" customHeight="1">
-      <c r="A70" s="14">
+    <row r="70" spans="1:8" ht="16.899999999999999" customHeight="1">
+      <c r="A70" s="13">
         <v>10</v>
       </c>
-      <c r="B70" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C70" s="17" t="s">
+      <c r="B70" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D70" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E70" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G70" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H70" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="13.8" customHeight="1">
-      <c r="A71" s="14"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="17"/>
+      <c r="G70" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A71" s="13"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="20"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
       <c r="F71" s="16"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-    </row>
-    <row r="72" spans="1:8" ht="13.8" customHeight="1">
-      <c r="A72" s="14"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="17"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+    </row>
+    <row r="72" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A72" s="13"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="20"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
       <c r="F72" s="16"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-    </row>
-    <row r="73" spans="1:8" ht="13.8" customHeight="1">
-      <c r="A73" s="14"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="17"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+    </row>
+    <row r="73" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A73" s="13"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="20"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15"/>
       <c r="F73" s="16"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-    </row>
-    <row r="74" spans="1:8" ht="13.8" customHeight="1">
-      <c r="A74" s="14"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="17"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+    </row>
+    <row r="74" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A74" s="13"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="20"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
       <c r="F74" s="16"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-    </row>
-    <row r="75" spans="1:8" ht="13.8" customHeight="1">
-      <c r="A75" s="14"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="17"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+    </row>
+    <row r="75" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A75" s="13"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="20"/>
       <c r="D75" s="15"/>
       <c r="E75" s="15"/>
       <c r="F75" s="16"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-    </row>
-    <row r="76" spans="1:8" ht="13.8" customHeight="1">
-      <c r="A76" s="14"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="17"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+    </row>
+    <row r="76" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A76" s="13"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="20"/>
       <c r="D76" s="15"/>
       <c r="E76" s="15"/>
       <c r="F76" s="16"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-    </row>
-    <row r="77" spans="1:8" ht="13.8" customHeight="1">
-      <c r="A77" s="14"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="17"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+    </row>
+    <row r="77" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A77" s="13"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="20"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
       <c r="F77" s="16"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
-    </row>
-    <row r="78" spans="1:8" ht="91.2" customHeight="1">
-      <c r="A78" s="14"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="17"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+    </row>
+    <row r="78" spans="1:8" ht="91.15" customHeight="1">
+      <c r="A78" s="13"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="20"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15"/>
       <c r="F78" s="16"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
-    </row>
-    <row r="79" spans="1:8" ht="13.8" customHeight="1">
-      <c r="F79" s="12"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+    </row>
+    <row r="79" spans="1:8" ht="13.9" customHeight="1">
+      <c r="F79" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="G3:G8"/>
-    <mergeCell ref="H3:H8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="C9:C16"/>
-    <mergeCell ref="D9:D16"/>
-    <mergeCell ref="E9:E16"/>
-    <mergeCell ref="F9:F16"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="F3:F8"/>
-    <mergeCell ref="D3:D8"/>
-    <mergeCell ref="E3:E8"/>
-    <mergeCell ref="F27:F35"/>
-    <mergeCell ref="C17:C26"/>
-    <mergeCell ref="A17:A26"/>
-    <mergeCell ref="B17:B26"/>
-    <mergeCell ref="D17:D26"/>
-    <mergeCell ref="E17:E26"/>
-    <mergeCell ref="F17:F26"/>
-    <mergeCell ref="A27:A35"/>
-    <mergeCell ref="B27:B35"/>
-    <mergeCell ref="C27:C35"/>
-    <mergeCell ref="D27:D35"/>
-    <mergeCell ref="E27:E35"/>
-    <mergeCell ref="G17:G26"/>
-    <mergeCell ref="G9:G16"/>
-    <mergeCell ref="H9:H16"/>
-    <mergeCell ref="H17:H26"/>
-    <mergeCell ref="G27:G35"/>
-    <mergeCell ref="H27:H35"/>
-    <mergeCell ref="H36:H44"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="B45:B52"/>
-    <mergeCell ref="C45:C52"/>
-    <mergeCell ref="D45:D52"/>
-    <mergeCell ref="E45:E52"/>
-    <mergeCell ref="F45:F52"/>
-    <mergeCell ref="G45:G52"/>
-    <mergeCell ref="A36:A44"/>
-    <mergeCell ref="B36:B44"/>
-    <mergeCell ref="C36:C44"/>
-    <mergeCell ref="D36:D44"/>
-    <mergeCell ref="E36:E44"/>
-    <mergeCell ref="F36:F44"/>
-    <mergeCell ref="C53:C61"/>
-    <mergeCell ref="B53:B61"/>
-    <mergeCell ref="A53:A61"/>
-    <mergeCell ref="D53:D61"/>
-    <mergeCell ref="G36:G44"/>
-    <mergeCell ref="F53:F61"/>
-    <mergeCell ref="E53:E61"/>
-    <mergeCell ref="G53:G61"/>
-    <mergeCell ref="H45:H52"/>
+    <mergeCell ref="E62:E69"/>
     <mergeCell ref="H53:H61"/>
     <mergeCell ref="H62:H69"/>
     <mergeCell ref="H70:H78"/>
@@ -1838,7 +1767,61 @@
     <mergeCell ref="C62:C69"/>
     <mergeCell ref="D62:D69"/>
     <mergeCell ref="F62:F69"/>
-    <mergeCell ref="E62:E69"/>
+    <mergeCell ref="C53:C61"/>
+    <mergeCell ref="B53:B61"/>
+    <mergeCell ref="A53:A61"/>
+    <mergeCell ref="D53:D61"/>
+    <mergeCell ref="G36:G44"/>
+    <mergeCell ref="F53:F61"/>
+    <mergeCell ref="E53:E61"/>
+    <mergeCell ref="G53:G61"/>
+    <mergeCell ref="H36:H44"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="B45:B52"/>
+    <mergeCell ref="C45:C52"/>
+    <mergeCell ref="D45:D52"/>
+    <mergeCell ref="E45:E52"/>
+    <mergeCell ref="F45:F52"/>
+    <mergeCell ref="G45:G52"/>
+    <mergeCell ref="A36:A44"/>
+    <mergeCell ref="B36:B44"/>
+    <mergeCell ref="C36:C44"/>
+    <mergeCell ref="D36:D44"/>
+    <mergeCell ref="E36:E44"/>
+    <mergeCell ref="F36:F44"/>
+    <mergeCell ref="H45:H52"/>
+    <mergeCell ref="G17:G26"/>
+    <mergeCell ref="G9:G16"/>
+    <mergeCell ref="H9:H16"/>
+    <mergeCell ref="H17:H26"/>
+    <mergeCell ref="G27:G35"/>
+    <mergeCell ref="H27:H35"/>
+    <mergeCell ref="F27:F35"/>
+    <mergeCell ref="C17:C26"/>
+    <mergeCell ref="A17:A26"/>
+    <mergeCell ref="B17:B26"/>
+    <mergeCell ref="D17:D26"/>
+    <mergeCell ref="E17:E26"/>
+    <mergeCell ref="F17:F26"/>
+    <mergeCell ref="A27:A35"/>
+    <mergeCell ref="B27:B35"/>
+    <mergeCell ref="C27:C35"/>
+    <mergeCell ref="D27:D35"/>
+    <mergeCell ref="E27:E35"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="H3:H8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="C9:C16"/>
+    <mergeCell ref="D9:D16"/>
+    <mergeCell ref="E9:E16"/>
+    <mergeCell ref="F9:F16"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="E3:E8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A2:H2">
